--- a/biology/Biologie cellulaire et moléculaire/Leclercia_adecarboxylata/Leclercia_adecarboxylata.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Leclercia_adecarboxylata/Leclercia_adecarboxylata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leclercia adecarboxylata est une bactérie à Gram négatif de la famille des Enterobacteriaceae. 
-Elle est mobile et non sporulée. Ses caractéristiques biochimiques comprennent l'absence d'ADH, LDC, ODC[Quoi ?], et de β-glucuronidase, ce qui explique sa dénomination « adecarboxylata ». Elle est positive pour le malonate, le lactose, le mannitol, l'arabinose, la mélibiose et la rhamnose, mais négative pour le sorbitol et l'inositol. On la retrouve souvent dans le sol, les eaux usées, et chez les animaux. Bien qu'elle soit rarement pathogène chez l'homme, elle a été associée à des infections opportunistes, en particulier chez les patients immunodéprimés[1].
+Elle est mobile et non sporulée. Ses caractéristiques biochimiques comprennent l'absence d'ADH, LDC, ODC[Quoi ?], et de β-glucuronidase, ce qui explique sa dénomination « adecarboxylata ». Elle est positive pour le malonate, le lactose, le mannitol, l'arabinose, la mélibiose et la rhamnose, mais négative pour le sorbitol et l'inositol. On la retrouve souvent dans le sol, les eaux usées, et chez les animaux. Bien qu'elle soit rarement pathogène chez l'homme, elle a été associée à des infections opportunistes, en particulier chez les patients immunodéprimés.
 </t>
         </is>
       </c>
